--- a/Code/Matlab/Solutions/Main/Precomputed_Network_Simulation/Joint_Data.xlsx
+++ b/Code/Matlab/Solutions/Main/Precomputed_Network_Simulation/Joint_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Solutions\Main\Precomputed_Network_Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233EA3E-1DB8-44AD-9007-8B082EAE221F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D57592B-805A-4990-8230-50975DDB1D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D94899F0-6C00-4EFE-A0D1-18351498C7BD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -122,13 +121,34 @@
   </si>
   <si>
     <t>[rad/s]</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Joint Limits</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>[Ext / Flx]</t>
+  </si>
+  <si>
+    <t>Flx</t>
+  </si>
+  <si>
+    <t>Ext</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +156,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -153,23 +218,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB170E5-2C31-4C74-A1D7-1C299F2B3E21}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,1221 +759,1392 @@
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="40"/>
+      <c r="J1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="42" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="Y2" s="43"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I4" s="4">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="J4" s="4">
         <v>-9.5625</v>
       </c>
-      <c r="I4">
-        <f>0.0254*H4</f>
+      <c r="K4" s="4">
+        <f>0.0254*J4</f>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J4">
+      <c r="L4" s="4">
         <v>1.25</v>
       </c>
-      <c r="K4">
-        <f>0.0254*J4</f>
+      <c r="M4" s="4">
+        <f>0.0254*L4</f>
         <v>3.175E-2</v>
       </c>
-      <c r="L4">
+      <c r="N4" s="4">
         <v>4.0625</v>
       </c>
-      <c r="M4">
-        <f>0.0254*L4</f>
+      <c r="O4" s="4">
+        <f>0.0254*N4</f>
         <v>0.1031875</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>H4</f>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J5" s="7">
+        <f>J4</f>
         <v>-9.5625</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I17" si="0">0.0254*H5</f>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K17" si="0">0.0254*J5</f>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J5">
-        <f>J4-6.4375</f>
+      <c r="L5" s="7">
+        <f>L4-6.4375</f>
         <v>-5.1875</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K17" si="1">0.0254*J5</f>
+      <c r="M5" s="7">
+        <f t="shared" ref="M5:M17" si="1">0.0254*L5</f>
         <v>-0.1317625</v>
       </c>
-      <c r="L5">
-        <f>L4</f>
+      <c r="N5" s="7">
+        <f>N4</f>
         <v>4.0625</v>
       </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M17" si="2">0.0254*L5</f>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O17" si="2">0.0254*N5</f>
         <v>0.1031875</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f t="shared" ref="A6:A17" si="3">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>H5</f>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>J5</f>
         <v>-9.5625</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J6">
-        <f>J5-7.5</f>
+      <c r="L6" s="7">
+        <f>L5-7.5</f>
         <v>-12.6875</v>
       </c>
-      <c r="K6">
+      <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>-0.32226250000000001</v>
       </c>
-      <c r="L6">
-        <f>L5</f>
+      <c r="N6" s="7">
+        <f>N5</f>
         <v>4.0625</v>
       </c>
-      <c r="M6">
+      <c r="O6" s="7">
         <f t="shared" si="2"/>
         <v>0.1031875</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>H6</f>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f>J6</f>
         <v>-9.5625</v>
       </c>
-      <c r="I7">
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J7">
-        <f>J6-8.3125</f>
+      <c r="L7" s="10">
+        <f>L6-8.3125</f>
         <v>-21</v>
       </c>
-      <c r="K7">
+      <c r="M7" s="10">
         <f t="shared" si="1"/>
         <v>-0.53339999999999999</v>
       </c>
-      <c r="L7">
-        <f>L6</f>
+      <c r="N7" s="10">
+        <f>N6</f>
         <v>4.0625</v>
       </c>
-      <c r="M7">
+      <c r="O7" s="10">
         <f t="shared" si="2"/>
         <v>0.1031875</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I8" s="13">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="J8" s="13">
         <v>9.5625</v>
       </c>
-      <c r="I8">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="J8">
+      <c r="L8" s="13">
         <v>-1.25</v>
       </c>
-      <c r="K8">
+      <c r="M8" s="13">
         <f t="shared" si="1"/>
         <v>-3.175E-2</v>
       </c>
-      <c r="L8">
+      <c r="N8" s="13">
         <v>4.0625</v>
       </c>
-      <c r="M8">
+      <c r="O8" s="13">
         <f t="shared" si="2"/>
         <v>0.1031875</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="50" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="16">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="16">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>H8</f>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J9" s="16">
+        <f>J8</f>
         <v>9.5625</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="16">
         <f t="shared" si="0"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="J9">
-        <f>J8-8.625</f>
+      <c r="L9" s="16">
+        <f>L8-8.625</f>
         <v>-9.875</v>
       </c>
-      <c r="K9">
+      <c r="M9" s="16">
         <f t="shared" si="1"/>
         <v>-0.25082499999999996</v>
       </c>
-      <c r="L9">
-        <f>L8</f>
+      <c r="N9" s="16">
+        <f>N8</f>
         <v>4.0625</v>
       </c>
-      <c r="M9">
+      <c r="O9" s="16">
         <f t="shared" si="2"/>
         <v>0.1031875</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="51" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="19">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>H9</f>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f>J9</f>
         <v>9.5625</v>
       </c>
-      <c r="I10">
+      <c r="K10" s="19">
         <f t="shared" si="0"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="J10">
-        <f>J9-8.625</f>
+      <c r="L10" s="19">
+        <f>L9-8.625</f>
         <v>-18.5</v>
       </c>
-      <c r="K10">
+      <c r="M10" s="19">
         <f t="shared" si="1"/>
         <v>-0.46989999999999998</v>
       </c>
-      <c r="L10">
-        <f>L9</f>
+      <c r="N10" s="19">
+        <f>N9</f>
         <v>4.0625</v>
       </c>
-      <c r="M10">
+      <c r="O10" s="19">
         <f t="shared" si="2"/>
         <v>0.1031875</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0</v>
+      </c>
+      <c r="X10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="52" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
         <v>8</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I11" s="22">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="J11" s="22">
         <v>-9.5625</v>
       </c>
-      <c r="I11">
+      <c r="K11" s="22">
         <f t="shared" si="0"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J11">
+      <c r="L11" s="22">
         <v>1.25</v>
       </c>
-      <c r="K11">
+      <c r="M11" s="22">
         <f t="shared" si="1"/>
         <v>3.175E-2</v>
       </c>
-      <c r="L11">
+      <c r="N11" s="22">
         <v>-4.0625</v>
       </c>
-      <c r="M11">
+      <c r="O11" s="22">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="22">
+        <v>0</v>
+      </c>
+      <c r="X11" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="25">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="25">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>H11</f>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J12" s="25">
+        <f>J11</f>
         <v>-9.5625</v>
       </c>
-      <c r="I12">
+      <c r="K12" s="25">
         <f t="shared" si="0"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J12">
-        <f>J11-6.4375</f>
+      <c r="L12" s="25">
+        <f>L11-6.4375</f>
         <v>-5.1875</v>
       </c>
-      <c r="K12">
+      <c r="M12" s="25">
         <f t="shared" si="1"/>
         <v>-0.1317625</v>
       </c>
-      <c r="L12">
-        <f>L11</f>
+      <c r="N12" s="25">
+        <f>N11</f>
         <v>-4.0625</v>
       </c>
-      <c r="M12">
+      <c r="O12" s="25">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25">
+        <v>0</v>
+      </c>
+      <c r="W12" s="25">
+        <v>0</v>
+      </c>
+      <c r="X12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="48" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="25">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="25">
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>H12</f>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <f>J12</f>
         <v>-9.5625</v>
       </c>
-      <c r="I13">
+      <c r="K13" s="25">
         <f t="shared" si="0"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J13">
-        <f>J12-7.5</f>
+      <c r="L13" s="25">
+        <f>L12-7.5</f>
         <v>-12.6875</v>
       </c>
-      <c r="K13">
+      <c r="M13" s="25">
         <f t="shared" si="1"/>
         <v>-0.32226250000000001</v>
       </c>
-      <c r="L13">
-        <f>L12</f>
+      <c r="N13" s="25">
+        <f>N12</f>
         <v>-4.0625</v>
       </c>
-      <c r="M13">
+      <c r="O13" s="25">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="25">
+        <v>0</v>
+      </c>
+      <c r="W13" s="25">
+        <v>0</v>
+      </c>
+      <c r="X13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="48" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="28">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="28">
         <v>11</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>H13</f>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <f>J13</f>
         <v>-9.5625</v>
       </c>
-      <c r="I14">
+      <c r="K14" s="28">
         <f t="shared" si="0"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="J14">
-        <f>J13-8.3125</f>
+      <c r="L14" s="28">
+        <f>L13-8.3125</f>
         <v>-21</v>
       </c>
-      <c r="K14">
+      <c r="M14" s="28">
         <f t="shared" si="1"/>
         <v>-0.53339999999999999</v>
       </c>
-      <c r="L14">
-        <f>L13</f>
+      <c r="N14" s="28">
+        <f>N13</f>
         <v>-4.0625</v>
       </c>
-      <c r="M14">
+      <c r="O14" s="28">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>0</v>
+      </c>
+      <c r="R14" s="28">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
+      <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28">
+        <v>0</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0</v>
+      </c>
+      <c r="X14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
         <v>12</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I15" s="31">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="J15" s="31">
         <v>9.5625</v>
       </c>
-      <c r="I15">
+      <c r="K15" s="31">
         <f t="shared" si="0"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="J15">
+      <c r="L15" s="31">
         <v>-1.25</v>
       </c>
-      <c r="K15">
+      <c r="M15" s="31">
         <f t="shared" si="1"/>
         <v>-3.175E-2</v>
       </c>
-      <c r="L15">
+      <c r="N15" s="31">
         <v>-4.0625</v>
       </c>
-      <c r="M15">
+      <c r="O15" s="31">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="P15" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
+      <c r="S15" s="31">
+        <v>0</v>
+      </c>
+      <c r="T15" s="31">
+        <v>0</v>
+      </c>
+      <c r="U15" s="31">
+        <v>0</v>
+      </c>
+      <c r="V15" s="31">
+        <v>0</v>
+      </c>
+      <c r="W15" s="31">
+        <v>0</v>
+      </c>
+      <c r="X15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="44" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="34">
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="34">
         <v>13</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>H15</f>
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="34">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J16" s="34">
+        <f>J15</f>
         <v>9.5625</v>
       </c>
-      <c r="I16">
+      <c r="K16" s="34">
         <f t="shared" si="0"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="J16">
-        <f>J15-8.625</f>
+      <c r="L16" s="34">
+        <f>L15-8.625</f>
         <v>-9.875</v>
       </c>
-      <c r="K16">
+      <c r="M16" s="34">
         <f t="shared" si="1"/>
         <v>-0.25082499999999996</v>
       </c>
-      <c r="L16">
-        <f>L15</f>
+      <c r="N16" s="34">
+        <f>N15</f>
         <v>-4.0625</v>
       </c>
-      <c r="M16">
+      <c r="O16" s="34">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="P16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>0</v>
+      </c>
+      <c r="R16" s="34">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
+      <c r="S16" s="34">
+        <v>0</v>
+      </c>
+      <c r="T16" s="34">
+        <v>0</v>
+      </c>
+      <c r="U16" s="34">
+        <v>0</v>
+      </c>
+      <c r="V16" s="34">
+        <v>0</v>
+      </c>
+      <c r="W16" s="34">
+        <v>0</v>
+      </c>
+      <c r="X16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="37">
         <v>13</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="37">
         <v>14</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f>H16</f>
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37">
+        <f>J16</f>
         <v>9.5625</v>
       </c>
-      <c r="I17">
+      <c r="K17" s="37">
         <f t="shared" si="0"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="J17">
-        <f>J16-8.625</f>
+      <c r="L17" s="37">
+        <f>L16-8.625</f>
         <v>-18.5</v>
       </c>
-      <c r="K17">
+      <c r="M17" s="37">
         <f t="shared" si="1"/>
         <v>-0.46989999999999998</v>
       </c>
-      <c r="L17">
-        <f>L16</f>
+      <c r="N17" s="37">
+        <f>N16</f>
         <v>-4.0625</v>
       </c>
-      <c r="M17">
+      <c r="O17" s="37">
         <f t="shared" si="2"/>
         <v>-0.1031875</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="P17" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>0</v>
+      </c>
+      <c r="R17" s="37">
         <v>1</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
+      <c r="S17" s="37">
+        <v>0</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0</v>
+      </c>
+      <c r="V17" s="37">
+        <v>0</v>
+      </c>
+      <c r="W17" s="37">
+        <v>0</v>
+      </c>
+      <c r="X17" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="46" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="H1:M1"/>
+  <mergeCells count="16">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="J1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1719,9 +2152,10 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Code/Matlab/Solutions/Main/Precomputed_Network_Simulation/Joint_Data.xlsx
+++ b/Code/Matlab/Solutions/Main/Precomputed_Network_Simulation/Joint_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Solutions\Main\Precomputed_Network_Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D57592B-805A-4990-8230-50975DDB1D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DE5A44-7A6A-4CEA-AEC1-DF79FD18FD51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D94899F0-6C00-4EFE-A0D1-18351498C7BD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Ext</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>[Nm]</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,18 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
@@ -425,6 +419,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -744,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB170E5-2C31-4C74-A1D7-1C299F2B3E21}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,87 +779,91 @@
     <col min="16" max="21" width="6.7109375" customWidth="1"/>
     <col min="22" max="24" width="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="49" t="s">
         <v>35</v>
       </c>
+      <c r="Z1" s="49" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="40"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
@@ -878,9 +891,10 @@
       <c r="X2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="43"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="Y3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Z3" s="39" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1038,8 +1055,11 @@
       <c r="Y4" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>A4+1</f>
         <v>2</v>
@@ -1123,8 +1143,11 @@
       <c r="Y5" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A17" si="3">A5+1</f>
         <v>3</v>
@@ -1208,8 +1231,11 @@
       <c r="Y6" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1293,8 +1319,11 @@
       <c r="Y7" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1373,11 +1402,14 @@
       <c r="X8" s="14">
         <v>0</v>
       </c>
-      <c r="Y8" s="50" t="s">
+      <c r="Y8" s="46" t="s">
         <v>38</v>
       </c>
+      <c r="Z8" s="46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1458,11 +1490,14 @@
       <c r="X9" s="17">
         <v>0</v>
       </c>
-      <c r="Y9" s="51" t="s">
+      <c r="Y9" s="47" t="s">
         <v>37</v>
       </c>
+      <c r="Z9" s="47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1543,11 +1578,14 @@
       <c r="X10" s="20">
         <v>0</v>
       </c>
-      <c r="Y10" s="52" t="s">
+      <c r="Y10" s="48" t="s">
         <v>38</v>
       </c>
+      <c r="Z10" s="48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1626,11 +1664,14 @@
       <c r="X11" s="23">
         <v>0</v>
       </c>
-      <c r="Y11" s="47" t="s">
+      <c r="Y11" s="43" t="s">
         <v>37</v>
       </c>
+      <c r="Z11" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1711,11 +1752,14 @@
       <c r="X12" s="26">
         <v>0</v>
       </c>
-      <c r="Y12" s="48" t="s">
+      <c r="Y12" s="44" t="s">
         <v>37</v>
       </c>
+      <c r="Z12" s="44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1796,11 +1840,14 @@
       <c r="X13" s="26">
         <v>0</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Y13" s="44" t="s">
         <v>38</v>
       </c>
+      <c r="Z13" s="44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1881,11 +1928,14 @@
       <c r="X14" s="29">
         <v>0</v>
       </c>
-      <c r="Y14" s="49" t="s">
+      <c r="Y14" s="45" t="s">
         <v>38</v>
       </c>
+      <c r="Z14" s="45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1964,11 +2014,14 @@
       <c r="X15" s="32">
         <v>0</v>
       </c>
-      <c r="Y15" s="44" t="s">
+      <c r="Y15" s="40" t="s">
         <v>38</v>
       </c>
+      <c r="Z15" s="40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2049,11 +2102,14 @@
       <c r="X16" s="35">
         <v>0</v>
       </c>
-      <c r="Y16" s="45" t="s">
+      <c r="Y16" s="41" t="s">
         <v>37</v>
       </c>
+      <c r="Z16" s="41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2134,28 +2190,32 @@
       <c r="X17" s="38">
         <v>0</v>
       </c>
-      <c r="Y17" s="46" t="s">
+      <c r="Y17" s="42" t="s">
         <v>38</v>
+      </c>
+      <c r="Z17" s="42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="17">
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
